--- a/data/biolab cabinet.xlsx
+++ b/data/biolab cabinet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27230"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://massbay0-my.sharepoint.com/personal/fzahid_massbay_edu/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arocha\Downloads\up to date tables for the project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="8_{546B890F-49AF-4017-83CF-EBF23AFC8C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6186F52C-B8C4-422C-8DFB-2B8AC582CD9F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D8728B-64CA-48DB-A2BB-7F1E513A3AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{C64202F7-1271-4968-81E1-05A68D784640}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="15576" xr2:uid="{C64202F7-1271-4968-81E1-05A68D784640}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,9 +382,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -422,7 +422,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -528,7 +528,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -670,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -680,101 +680,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93751BF2-A034-4980-BEAE-1DD4A0FF4961}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>412</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2">
+        <v>412</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
       <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
         <f>1.5*4</f>
         <v>6</v>
       </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3">
-        <v>412</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3">
+        <v>412</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
         <v>400</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
@@ -782,31 +780,31 @@
       </c>
     </row>
     <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>412</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4">
+        <v>412</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
       <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
         <v>200</v>
       </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="2">
@@ -815,941 +813,941 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5">
-        <v>412</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5">
+        <v>412</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
         <v>400</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6">
-        <v>412</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6">
+        <v>412</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
         <v>0.25</v>
       </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
-        <v>412</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
+      <c r="C7">
+        <v>412</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
         <v>350</v>
       </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
       <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8">
-        <v>412</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
+      <c r="C8">
+        <v>412</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
         <v>200</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9">
-        <v>412</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
+      <c r="C9">
+        <v>412</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
         <v>200</v>
       </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10">
-        <v>412</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
+      <c r="C10">
+        <v>412</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
         <v>30</v>
       </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="D11">
-        <v>412</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
+      <c r="C11">
+        <v>412</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
         <v>500</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="D12">
-        <v>412</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
+      <c r="C12">
+        <v>412</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13">
-        <v>412</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
+      <c r="C13">
+        <v>412</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
         <v>175</v>
       </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14">
-        <v>412</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
+      <c r="C14">
+        <v>412</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
         <v>50</v>
       </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15">
-        <v>412</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
+      <c r="C15">
+        <v>412</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
-      <c r="G15">
-        <v>3</v>
+      <c r="G15" t="s">
+        <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>412</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>412</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>500</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>412</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>500</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>412</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17">
-        <v>412</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19">
+        <v>412</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>500</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18">
-        <v>412</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>412</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <v>412</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>500</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G21" t="s">
         <v>54</v>
       </c>
-      <c r="I18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" t="s">
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22">
+        <v>412</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>500</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19">
-        <v>412</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="J22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <v>412</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>500</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G23" t="s">
         <v>54</v>
       </c>
-      <c r="I19" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20">
-        <v>412</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>1000</v>
-      </c>
-      <c r="H20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21">
-        <v>412</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>412</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>500</v>
       </c>
-      <c r="H21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22">
-        <v>412</v>
-      </c>
-      <c r="E22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>500</v>
-      </c>
-      <c r="H22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23">
-        <v>412</v>
-      </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>500</v>
-      </c>
-      <c r="H23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24">
-        <v>412</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>500</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s">
         <v>12</v>
       </c>
-      <c r="D25">
-        <v>412</v>
-      </c>
-      <c r="E25" t="s">
-        <v>32</v>
+      <c r="C25">
+        <v>412</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
         <v>0.8</v>
       </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J25" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="D26">
-        <v>412</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
+      <c r="C26">
+        <v>412</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26">
-        <v>1</v>
+      <c r="G26" t="s">
+        <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J26" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
         <v>12</v>
       </c>
-      <c r="D27">
-        <v>412</v>
-      </c>
-      <c r="E27" t="s">
-        <v>32</v>
+      <c r="C27">
+        <v>412</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
         <v>50</v>
       </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="I27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J27" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" t="s">
         <v>74</v>
       </c>
-      <c r="D28">
-        <v>412</v>
-      </c>
-      <c r="E28" t="s">
-        <v>32</v>
+      <c r="C28">
+        <v>412</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
         <v>60</v>
       </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
       <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29">
+        <v>412</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
         <v>14</v>
       </c>
-      <c r="I28" t="s">
-        <v>75</v>
-      </c>
-      <c r="J28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
         <v>43</v>
       </c>
-      <c r="D29">
-        <v>412</v>
-      </c>
-      <c r="E29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
+      <c r="C30">
+        <v>412</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>25</v>
       </c>
-      <c r="H29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30">
-        <v>412</v>
-      </c>
-      <c r="E30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>25</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
         <v>79</v>
       </c>
-      <c r="D31">
-        <v>412</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31">
+        <v>412</v>
+      </c>
+      <c r="D31" t="s">
         <v>80</v>
       </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
       <c r="F31">
-        <v>12</v>
-      </c>
-      <c r="G31">
         <f>50*12</f>
         <v>600</v>
       </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" t="s">
         <v>43</v>
       </c>
-      <c r="D32">
-        <v>412</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C32">
+        <v>412</v>
+      </c>
+      <c r="D32" t="s">
         <v>80</v>
       </c>
+      <c r="E32">
+        <v>26</v>
+      </c>
       <c r="F32">
-        <v>26</v>
-      </c>
-      <c r="G32">
         <f>26*40</f>
         <v>1040</v>
       </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
         <v>43</v>
       </c>
-      <c r="D33">
-        <v>412</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C33">
+        <v>412</v>
+      </c>
+      <c r="D33" t="s">
         <v>80</v>
       </c>
-      <c r="F33">
+      <c r="E33">
         <v>15</v>
       </c>
+      <c r="H33" t="s">
+        <v>44</v>
+      </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" t="s">
         <v>43</v>
       </c>
-      <c r="D34">
-        <v>412</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C34">
+        <v>412</v>
+      </c>
+      <c r="D34" t="s">
         <v>80</v>
       </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
       <c r="F34">
-        <v>4</v>
-      </c>
-      <c r="G34">
         <v>12</v>
       </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
       <c r="H34" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" t="s">
         <v>12</v>
       </c>
-      <c r="D35">
-        <v>412</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C35">
+        <v>412</v>
+      </c>
+      <c r="D35" t="s">
         <v>80</v>
       </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
       <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
         <v>50</v>
       </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="I35" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
         <v>12</v>
       </c>
-      <c r="D36">
-        <v>412</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C36">
+        <v>412</v>
+      </c>
+      <c r="D36" t="s">
         <v>80</v>
       </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
       <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
         <v>60</v>
       </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" t="s">
         <v>43</v>
       </c>
-      <c r="D37">
-        <v>412</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="C37">
+        <v>412</v>
+      </c>
+      <c r="D37" t="s">
         <v>80</v>
       </c>
+      <c r="E37">
+        <v>15</v>
+      </c>
       <c r="F37">
-        <v>15</v>
-      </c>
-      <c r="G37">
         <f>30*15</f>
         <v>450</v>
       </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="I37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J37" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1758,18 +1756,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1929,13 +1927,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{026D8E70-3B69-49A4-9B5A-E682F2C935A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12918F36-B2F9-4EF0-B9C3-A15CA59F46D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12918F36-B2F9-4EF0-B9C3-A15CA59F46D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{026D8E70-3B69-49A4-9B5A-E682F2C935A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E718E37-040D-4307-B209-510177B2DB9C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E718E37-040D-4307-B209-510177B2DB9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1b070055-38e7-4426-9cac-16bf7861c515"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>